--- a/Data Analysis in SpreadSheets/Flow control.xlsx
+++ b/Data Analysis in SpreadSheets/Flow control.xlsx
@@ -601,16 +601,16 @@
         <v>600</v>
       </c>
       <c r="G14" s="28">
-        <f>E14*I5</f>
+        <f t="shared" ref="G14:G44" si="2">E14*$I$4</f>
+        <v>240</v>
+      </c>
+      <c r="H14" s="28">
+        <f t="shared" ref="H14:H44" si="3">D14*$D$10*IF(C14,$D$11,1)</f>
+        <v>360</v>
+      </c>
+      <c r="I14" s="29">
+        <f t="shared" ref="I14:I45" si="4">SUM(G14:H14)</f>
         <v>600</v>
-      </c>
-      <c r="H14" s="28">
-        <f t="shared" ref="H14:H44" si="2">D14*$D$10*IF(C14,$D$11,1)</f>
-        <v>360</v>
-      </c>
-      <c r="I14" s="29">
-        <f t="shared" ref="I14:I45" si="3">SUM(G14:H14)</f>
-        <v>960</v>
       </c>
     </row>
     <row r="15">
@@ -632,16 +632,16 @@
         <v>850</v>
       </c>
       <c r="G15" s="28">
-        <f t="shared" ref="G15:G44" si="4">E15*$I$5</f>
-        <v>850</v>
+        <f t="shared" si="2"/>
+        <v>340</v>
       </c>
       <c r="H15" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>320</v>
       </c>
       <c r="I15" s="29">
-        <f t="shared" si="3"/>
-        <v>1170</v>
+        <f t="shared" si="4"/>
+        <v>660</v>
       </c>
     </row>
     <row r="16">
@@ -663,16 +663,16 @@
         <v>700</v>
       </c>
       <c r="G16" s="28">
-        <f t="shared" si="4"/>
-        <v>700</v>
+        <f t="shared" si="2"/>
+        <v>280</v>
       </c>
       <c r="H16" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>320</v>
       </c>
       <c r="I16" s="29">
-        <f t="shared" si="3"/>
-        <v>1020</v>
+        <f t="shared" si="4"/>
+        <v>600</v>
       </c>
     </row>
     <row r="17">
@@ -694,16 +694,16 @@
         <v>850</v>
       </c>
       <c r="G17" s="28">
-        <f t="shared" si="4"/>
-        <v>850</v>
+        <f t="shared" si="2"/>
+        <v>340</v>
       </c>
       <c r="H17" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>320</v>
       </c>
       <c r="I17" s="29">
-        <f t="shared" si="3"/>
-        <v>1170</v>
+        <f t="shared" si="4"/>
+        <v>660</v>
       </c>
     </row>
     <row r="18">
@@ -725,16 +725,16 @@
         <v>1000</v>
       </c>
       <c r="G18" s="28">
-        <f t="shared" si="4"/>
-        <v>1000</v>
+        <f t="shared" si="2"/>
+        <v>400</v>
       </c>
       <c r="H18" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>280</v>
       </c>
       <c r="I18" s="29">
-        <f t="shared" si="3"/>
-        <v>1280</v>
+        <f t="shared" si="4"/>
+        <v>680</v>
       </c>
     </row>
     <row r="19">
@@ -756,16 +756,16 @@
         <v>200</v>
       </c>
       <c r="G19" s="28">
-        <f t="shared" si="4"/>
-        <v>200</v>
+        <f t="shared" si="2"/>
+        <v>80</v>
       </c>
       <c r="H19" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
       <c r="I19" s="29">
-        <f t="shared" si="3"/>
-        <v>360</v>
+        <f t="shared" si="4"/>
+        <v>240</v>
       </c>
     </row>
     <row r="20">
@@ -787,16 +787,16 @@
         <v>100</v>
       </c>
       <c r="G20" s="28">
-        <f t="shared" si="4"/>
-        <v>100</v>
+        <f t="shared" si="2"/>
+        <v>40</v>
       </c>
       <c r="H20" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="I20" s="29">
-        <f t="shared" si="3"/>
-        <v>180</v>
+        <f t="shared" si="4"/>
+        <v>120</v>
       </c>
     </row>
     <row r="21">
@@ -818,16 +818,16 @@
         <v>500</v>
       </c>
       <c r="G21" s="28">
-        <f t="shared" si="4"/>
-        <v>500</v>
+        <f t="shared" si="2"/>
+        <v>200</v>
       </c>
       <c r="H21" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>280</v>
       </c>
       <c r="I21" s="29">
-        <f t="shared" si="3"/>
-        <v>780</v>
+        <f t="shared" si="4"/>
+        <v>480</v>
       </c>
     </row>
     <row r="22">
@@ -849,16 +849,16 @@
         <v>350</v>
       </c>
       <c r="G22" s="28">
-        <f t="shared" si="4"/>
-        <v>350</v>
+        <f t="shared" si="2"/>
+        <v>140</v>
       </c>
       <c r="H22" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>280</v>
       </c>
       <c r="I22" s="29">
-        <f t="shared" si="3"/>
-        <v>630</v>
+        <f t="shared" si="4"/>
+        <v>420</v>
       </c>
     </row>
     <row r="23">
@@ -880,16 +880,16 @@
         <v>450</v>
       </c>
       <c r="G23" s="28">
-        <f t="shared" si="4"/>
-        <v>450</v>
+        <f t="shared" si="2"/>
+        <v>180</v>
       </c>
       <c r="H23" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>320</v>
       </c>
       <c r="I23" s="29">
-        <f t="shared" si="3"/>
-        <v>770</v>
+        <f t="shared" si="4"/>
+        <v>500</v>
       </c>
     </row>
     <row r="24">
@@ -911,16 +911,16 @@
         <v>600</v>
       </c>
       <c r="G24" s="28">
+        <f t="shared" si="2"/>
+        <v>240</v>
+      </c>
+      <c r="H24" s="28">
+        <f t="shared" si="3"/>
+        <v>360</v>
+      </c>
+      <c r="I24" s="29">
         <f t="shared" si="4"/>
         <v>600</v>
-      </c>
-      <c r="H24" s="28">
-        <f t="shared" si="2"/>
-        <v>360</v>
-      </c>
-      <c r="I24" s="29">
-        <f t="shared" si="3"/>
-        <v>960</v>
       </c>
     </row>
     <row r="25">
@@ -942,16 +942,16 @@
         <v>700</v>
       </c>
       <c r="G25" s="28">
-        <f t="shared" si="4"/>
-        <v>700</v>
+        <f t="shared" si="2"/>
+        <v>280</v>
       </c>
       <c r="H25" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>320</v>
       </c>
       <c r="I25" s="29">
-        <f t="shared" si="3"/>
-        <v>1020</v>
+        <f t="shared" si="4"/>
+        <v>600</v>
       </c>
     </row>
     <row r="26">
@@ -973,15 +973,15 @@
         <v>0</v>
       </c>
       <c r="G26" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H26" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I26" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1004,16 +1004,16 @@
         <v>200</v>
       </c>
       <c r="G27" s="28">
-        <f t="shared" si="4"/>
-        <v>200</v>
+        <f t="shared" si="2"/>
+        <v>80</v>
       </c>
       <c r="H27" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
       <c r="I27" s="29">
-        <f t="shared" si="3"/>
-        <v>360</v>
+        <f t="shared" si="4"/>
+        <v>240</v>
       </c>
     </row>
     <row r="28">
@@ -1035,16 +1035,16 @@
         <v>500</v>
       </c>
       <c r="G28" s="28">
-        <f t="shared" si="4"/>
-        <v>500</v>
+        <f t="shared" si="2"/>
+        <v>200</v>
       </c>
       <c r="H28" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>320</v>
       </c>
       <c r="I28" s="29">
-        <f t="shared" si="3"/>
-        <v>820</v>
+        <f t="shared" si="4"/>
+        <v>520</v>
       </c>
     </row>
     <row r="29">
@@ -1066,16 +1066,16 @@
         <v>750</v>
       </c>
       <c r="G29" s="28">
-        <f t="shared" si="4"/>
-        <v>750</v>
+        <f t="shared" si="2"/>
+        <v>300</v>
       </c>
       <c r="H29" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>280</v>
       </c>
       <c r="I29" s="29">
-        <f t="shared" si="3"/>
-        <v>1030</v>
+        <f t="shared" si="4"/>
+        <v>580</v>
       </c>
     </row>
     <row r="30">
@@ -1097,16 +1097,16 @@
         <v>750</v>
       </c>
       <c r="G30" s="28">
-        <f t="shared" si="4"/>
-        <v>750</v>
+        <f t="shared" si="2"/>
+        <v>300</v>
       </c>
       <c r="H30" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>280</v>
       </c>
       <c r="I30" s="29">
-        <f t="shared" si="3"/>
-        <v>1030</v>
+        <f t="shared" si="4"/>
+        <v>580</v>
       </c>
     </row>
     <row r="31">
@@ -1128,16 +1128,16 @@
         <v>1250</v>
       </c>
       <c r="G31" s="28">
-        <f t="shared" si="4"/>
-        <v>1250</v>
+        <f t="shared" si="2"/>
+        <v>500</v>
       </c>
       <c r="H31" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>360</v>
       </c>
       <c r="I31" s="29">
-        <f t="shared" si="3"/>
-        <v>1610</v>
+        <f t="shared" si="4"/>
+        <v>860</v>
       </c>
     </row>
     <row r="32">
@@ -1159,16 +1159,16 @@
         <v>850</v>
       </c>
       <c r="G32" s="28">
-        <f t="shared" si="4"/>
-        <v>850</v>
+        <f t="shared" si="2"/>
+        <v>340</v>
       </c>
       <c r="H32" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>360</v>
       </c>
       <c r="I32" s="29">
-        <f t="shared" si="3"/>
-        <v>1210</v>
+        <f t="shared" si="4"/>
+        <v>700</v>
       </c>
     </row>
     <row r="33">
@@ -1190,16 +1190,16 @@
         <v>50</v>
       </c>
       <c r="G33" s="28">
-        <f t="shared" si="4"/>
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="H33" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="I33" s="29">
-        <f t="shared" si="3"/>
-        <v>130</v>
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
     </row>
     <row r="34">
@@ -1221,16 +1221,16 @@
         <v>150</v>
       </c>
       <c r="G34" s="28">
-        <f t="shared" si="4"/>
-        <v>150</v>
+        <f t="shared" si="2"/>
+        <v>60</v>
       </c>
       <c r="H34" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="I34" s="29">
-        <f t="shared" si="3"/>
-        <v>230</v>
+        <f t="shared" si="4"/>
+        <v>140</v>
       </c>
     </row>
     <row r="35">
@@ -1252,16 +1252,16 @@
         <v>950</v>
       </c>
       <c r="G35" s="28">
-        <f t="shared" si="4"/>
-        <v>950</v>
+        <f t="shared" si="2"/>
+        <v>380</v>
       </c>
       <c r="H35" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>280</v>
       </c>
       <c r="I35" s="29">
-        <f t="shared" si="3"/>
-        <v>1230</v>
+        <f t="shared" si="4"/>
+        <v>660</v>
       </c>
     </row>
     <row r="36">
@@ -1283,16 +1283,16 @@
         <v>650</v>
       </c>
       <c r="G36" s="28">
-        <f t="shared" si="4"/>
-        <v>650</v>
+        <f t="shared" si="2"/>
+        <v>260</v>
       </c>
       <c r="H36" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>280</v>
       </c>
       <c r="I36" s="29">
-        <f t="shared" si="3"/>
-        <v>930</v>
+        <f t="shared" si="4"/>
+        <v>540</v>
       </c>
     </row>
     <row r="37">
@@ -1314,16 +1314,16 @@
         <v>550</v>
       </c>
       <c r="G37" s="28">
-        <f t="shared" si="4"/>
-        <v>550</v>
+        <f t="shared" si="2"/>
+        <v>220</v>
       </c>
       <c r="H37" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>280</v>
       </c>
       <c r="I37" s="29">
-        <f t="shared" si="3"/>
-        <v>830</v>
+        <f t="shared" si="4"/>
+        <v>500</v>
       </c>
     </row>
     <row r="38">
@@ -1345,16 +1345,16 @@
         <v>800</v>
       </c>
       <c r="G38" s="28">
-        <f t="shared" si="4"/>
-        <v>800</v>
+        <f t="shared" si="2"/>
+        <v>320</v>
       </c>
       <c r="H38" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>320</v>
       </c>
       <c r="I38" s="29">
-        <f t="shared" si="3"/>
-        <v>1120</v>
+        <f t="shared" si="4"/>
+        <v>640</v>
       </c>
     </row>
     <row r="39">
@@ -1376,16 +1376,16 @@
         <v>800</v>
       </c>
       <c r="G39" s="28">
-        <f t="shared" si="4"/>
-        <v>800</v>
+        <f t="shared" si="2"/>
+        <v>320</v>
       </c>
       <c r="H39" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>280</v>
       </c>
       <c r="I39" s="29">
-        <f t="shared" si="3"/>
-        <v>1080</v>
+        <f t="shared" si="4"/>
+        <v>600</v>
       </c>
     </row>
     <row r="40">
@@ -1407,16 +1407,16 @@
         <v>100</v>
       </c>
       <c r="G40" s="28">
-        <f t="shared" si="4"/>
-        <v>100</v>
+        <f t="shared" si="2"/>
+        <v>40</v>
       </c>
       <c r="H40" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="I40" s="29">
-        <f t="shared" si="3"/>
-        <v>180</v>
+        <f t="shared" si="4"/>
+        <v>120</v>
       </c>
     </row>
     <row r="41">
@@ -1438,15 +1438,15 @@
         <v>0</v>
       </c>
       <c r="G41" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H41" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I41" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1469,16 +1469,16 @@
         <v>850</v>
       </c>
       <c r="G42" s="28">
-        <f t="shared" si="4"/>
-        <v>850</v>
+        <f t="shared" si="2"/>
+        <v>340</v>
       </c>
       <c r="H42" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>320</v>
       </c>
       <c r="I42" s="29">
-        <f t="shared" si="3"/>
-        <v>1170</v>
+        <f t="shared" si="4"/>
+        <v>660</v>
       </c>
     </row>
     <row r="43">
@@ -1500,16 +1500,16 @@
         <v>550</v>
       </c>
       <c r="G43" s="28">
-        <f t="shared" si="4"/>
-        <v>550</v>
+        <f t="shared" si="2"/>
+        <v>220</v>
       </c>
       <c r="H43" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>320</v>
       </c>
       <c r="I43" s="29">
-        <f t="shared" si="3"/>
-        <v>870</v>
+        <f t="shared" si="4"/>
+        <v>540</v>
       </c>
     </row>
     <row r="44">
@@ -1531,16 +1531,16 @@
         <v>800</v>
       </c>
       <c r="G44" s="28">
-        <f t="shared" si="4"/>
-        <v>800</v>
+        <f t="shared" si="2"/>
+        <v>320</v>
       </c>
       <c r="H44" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>320</v>
       </c>
       <c r="I44" s="29">
-        <f t="shared" si="3"/>
-        <v>1120</v>
+        <f t="shared" si="4"/>
+        <v>640</v>
       </c>
     </row>
     <row r="45">
@@ -1564,7 +1564,7 @@
       <c r="G45" s="33"/>
       <c r="H45" s="28"/>
       <c r="I45" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
